--- a/20250915_INR_GPC_ONR Template.xlsx
+++ b/20250915_INR_GPC_ONR Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggallon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53743CE6-6992-0E41-B1EA-441454CCBEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDF562-24E2-2C4D-96B3-774B4BD462BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27940" yWindow="9160" windowWidth="32420" windowHeight="19880" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,7 +3529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="136">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3934,6 +3934,9 @@
   </si>
   <si>
     <t>Compétences</t>
+  </si>
+  <si>
+    <t>En sollicitant l’engagement et l’expertise des parties prenantes (sur les sujets environnementaux, sociaux et sociétaux)</t>
   </si>
 </sst>
 </file>
@@ -6243,6 +6246,20 @@
     <xf numFmtId="0" fontId="38" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="51" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6261,6 +6278,48 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6279,55 +6338,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6454,14 +6465,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -6486,7 +6489,28 @@
     <cellStyle name="Ombré3" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Vide" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
-  <dxfs count="407">
+  <dxfs count="406">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6504,6 +6528,146 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -6511,6 +6675,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6518,6 +6689,496 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -6525,6 +7186,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -6532,6 +7221,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6539,6 +7277,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -6560,6 +7305,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -6581,6 +7347,125 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -6588,6 +7473,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6602,6 +7501,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -6609,6 +7522,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -6630,6 +7557,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -6637,6 +7578,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -6644,6 +7620,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6651,6 +7683,426 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
@@ -6658,6 +8110,510 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -6665,6 +8621,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -6672,7 +8663,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6686,6 +8684,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6693,6 +8705,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6700,6 +8726,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -6714,6 +8747,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -6728,2051 +8768,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11170,7 +11166,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Institut de la Francophonie pour le Développement Durable (IFDD), Global Shift Institute (GSI), inspiré des travaux de la Chaire en éco-conseil de l'UQAC et de Cités et gouvernements locaux unis (CGLU) et des travaux fait à l'EIGSI et La Rochelle Université.</a:t>
+            <a:t>Institut de la Francophonie pour le Développement Durable (IFDD), Global Shift Institute (GSI), inspiré des travaux de la Chaire en éco-conseil de l'UQAC et de Cités et gouvernements locaux unis (CGLU) et des travaux fait à l'EIGSI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> à</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> La Rochelle Université et à LaNum Pays Basque.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100" baseline="0">
@@ -11218,7 +11238,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>et adaptée spécifiquement pour le projet TNRC </a:t>
+            <a:t>et adaptée spéficiquement pour encadrer des projets NR pour tout type d'organisation </a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR">
             <a:effectLst/>
@@ -14020,7 +14040,7 @@
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -14105,16 +14125,16 @@
     </row>
     <row r="2" spans="1:38" ht="16">
       <c r="A2" s="50"/>
-      <c r="B2" s="365" t="s">
+      <c r="B2" s="367" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="373"/>
-      <c r="I2" s="374"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="376"/>
       <c r="J2" s="111"/>
       <c r="K2" s="112"/>
       <c r="L2" s="112"/>
@@ -14127,20 +14147,20 @@
       <c r="S2" s="112"/>
       <c r="T2" s="112"/>
       <c r="U2" s="112"/>
-      <c r="V2" s="375" t="s">
+      <c r="V2" s="377" t="s">
         <v>98</v>
       </c>
-      <c r="W2" s="376"/>
-      <c r="X2" s="377"/>
-      <c r="Y2" s="363" t="s">
+      <c r="W2" s="378"/>
+      <c r="X2" s="379"/>
+      <c r="Y2" s="365" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="364"/>
+      <c r="Z2" s="366"/>
     </row>
     <row r="3" spans="1:38" s="114" customFormat="1" ht="218" thickBot="1">
       <c r="A3" s="113"/>
-      <c r="B3" s="367"/>
-      <c r="C3" s="368"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="370"/>
       <c r="D3" s="265" t="s">
         <v>100</v>
       </c>
@@ -14252,34 +14272,34 @@
     </row>
     <row r="4" spans="1:38" s="116" customFormat="1" ht="23" thickBot="1">
       <c r="A4" s="115"/>
-      <c r="B4" s="380" t="str">
+      <c r="B4" s="382" t="str">
         <f>'ONR 1'!B2</f>
         <v xml:space="preserve">ONR 1  -   SOBRIÉTÉ : S'engager à optimiser les outils numériques pour limiter leurs impacts et consommation					</v>
       </c>
-      <c r="C4" s="381"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
-      <c r="G4" s="381"/>
-      <c r="H4" s="381"/>
-      <c r="I4" s="381"/>
-      <c r="J4" s="381"/>
-      <c r="K4" s="381"/>
-      <c r="L4" s="381"/>
-      <c r="M4" s="381"/>
-      <c r="N4" s="381"/>
-      <c r="O4" s="381"/>
-      <c r="P4" s="381"/>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
-      <c r="U4" s="381"/>
-      <c r="V4" s="381"/>
-      <c r="W4" s="381"/>
-      <c r="X4" s="381"/>
-      <c r="Y4" s="381"/>
-      <c r="Z4" s="382"/>
+      <c r="C4" s="383"/>
+      <c r="D4" s="383"/>
+      <c r="E4" s="383"/>
+      <c r="F4" s="383"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="383"/>
+      <c r="I4" s="383"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="383"/>
+      <c r="M4" s="383"/>
+      <c r="N4" s="383"/>
+      <c r="O4" s="383"/>
+      <c r="P4" s="383"/>
+      <c r="Q4" s="383"/>
+      <c r="R4" s="383"/>
+      <c r="S4" s="383"/>
+      <c r="T4" s="383"/>
+      <c r="U4" s="383"/>
+      <c r="V4" s="383"/>
+      <c r="W4" s="383"/>
+      <c r="X4" s="383"/>
+      <c r="Y4" s="383"/>
+      <c r="Z4" s="384"/>
       <c r="AB4" s="116" t="str">
         <f>B4</f>
         <v xml:space="preserve">ONR 1  -   SOBRIÉTÉ : S'engager à optimiser les outils numériques pour limiter leurs impacts et consommation					</v>
@@ -14324,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="5" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A5" s="199"/>
       <c r="B5" s="218" t="str">
         <f>'ONR 1'!B7</f>
@@ -14459,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="6" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A6" s="199"/>
       <c r="B6" s="219" t="str">
         <f>'ONR 1'!B8</f>
@@ -14594,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="7" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A7" s="199"/>
       <c r="B7" s="219" t="str">
         <f>'ONR 1'!B9</f>
@@ -14729,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="8" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A8" s="199"/>
       <c r="B8" s="219" t="str">
         <f>'ONR 1'!B10</f>
@@ -14864,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="9" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A9" s="199"/>
       <c r="B9" s="219" t="str">
         <f>'ONR 1'!B11</f>
@@ -14999,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="10" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A10" s="199"/>
       <c r="B10" s="219" t="str">
         <f>'ONR 1'!B12</f>
@@ -15134,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="205" customFormat="1" ht="409.6" thickBot="1">
+    <row r="11" spans="1:38" s="205" customFormat="1" ht="39" thickBot="1">
       <c r="A11" s="199"/>
       <c r="B11" s="219" t="str">
         <f>'ONR 1'!B13</f>
@@ -15271,34 +15291,34 @@
     </row>
     <row r="12" spans="1:38" s="116" customFormat="1" ht="23" thickBot="1">
       <c r="A12" s="115"/>
-      <c r="B12" s="360" t="str">
+      <c r="B12" s="362" t="str">
         <f>'ONR 2'!B2</f>
         <v>ONR 2  -   INCLUSION : S'engager à développer des services numériques accessibles à toutes et tous, inclusifs et durables</v>
       </c>
-      <c r="C12" s="361"/>
-      <c r="D12" s="361"/>
-      <c r="E12" s="361"/>
-      <c r="F12" s="361"/>
-      <c r="G12" s="361"/>
-      <c r="H12" s="361"/>
-      <c r="I12" s="361"/>
-      <c r="J12" s="361"/>
-      <c r="K12" s="361"/>
-      <c r="L12" s="361"/>
-      <c r="M12" s="361"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="361"/>
-      <c r="P12" s="361"/>
-      <c r="Q12" s="361"/>
-      <c r="R12" s="361"/>
-      <c r="S12" s="361"/>
-      <c r="T12" s="361"/>
-      <c r="U12" s="361"/>
-      <c r="V12" s="361"/>
-      <c r="W12" s="361"/>
-      <c r="X12" s="361"/>
-      <c r="Y12" s="361"/>
-      <c r="Z12" s="378"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="363"/>
+      <c r="H12" s="363"/>
+      <c r="I12" s="363"/>
+      <c r="J12" s="363"/>
+      <c r="K12" s="363"/>
+      <c r="L12" s="363"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="363"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="363"/>
+      <c r="U12" s="363"/>
+      <c r="V12" s="363"/>
+      <c r="W12" s="363"/>
+      <c r="X12" s="363"/>
+      <c r="Y12" s="363"/>
+      <c r="Z12" s="380"/>
       <c r="AB12" s="116" t="str">
         <f>B12</f>
         <v>ONR 2  -   INCLUSION : S'engager à développer des services numériques accessibles à toutes et tous, inclusifs et durables</v>
@@ -15343,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="13" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A13" s="199"/>
       <c r="B13" s="218" t="str">
         <f>'ONR 2'!B7</f>
@@ -15478,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="205" customFormat="1" ht="342">
+    <row r="14" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A14" s="199"/>
       <c r="B14" s="218" t="str">
         <f>'ONR 2'!B8</f>
@@ -15613,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="15" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A15" s="199"/>
       <c r="B15" s="218" t="str">
         <f>'ONR 2'!B9</f>
@@ -15748,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="205" customFormat="1" ht="380">
+    <row r="16" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A16" s="199"/>
       <c r="B16" s="218" t="str">
         <f>'ONR 2'!B10</f>
@@ -15885,34 +15905,34 @@
     </row>
     <row r="17" spans="1:38" s="116" customFormat="1" ht="22">
       <c r="A17" s="115"/>
-      <c r="B17" s="379" t="str">
+      <c r="B17" s="381" t="str">
         <f>'ONR 3'!B2:C2</f>
         <v xml:space="preserve">ONR 3  -  RSE : S'engager pour des pratiques numériques éthiques et responsables </v>
       </c>
-      <c r="C17" s="379"/>
-      <c r="D17" s="379"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="379"/>
-      <c r="I17" s="379"/>
-      <c r="J17" s="379"/>
-      <c r="K17" s="379"/>
-      <c r="L17" s="379"/>
-      <c r="M17" s="379"/>
-      <c r="N17" s="379"/>
-      <c r="O17" s="379"/>
-      <c r="P17" s="379"/>
-      <c r="Q17" s="379"/>
-      <c r="R17" s="379"/>
-      <c r="S17" s="379"/>
-      <c r="T17" s="379"/>
-      <c r="U17" s="379"/>
-      <c r="V17" s="379"/>
-      <c r="W17" s="379"/>
-      <c r="X17" s="379"/>
-      <c r="Y17" s="379"/>
-      <c r="Z17" s="379"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="381"/>
+      <c r="E17" s="381"/>
+      <c r="F17" s="381"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="381"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="381"/>
+      <c r="K17" s="381"/>
+      <c r="L17" s="381"/>
+      <c r="M17" s="381"/>
+      <c r="N17" s="381"/>
+      <c r="O17" s="381"/>
+      <c r="P17" s="381"/>
+      <c r="Q17" s="381"/>
+      <c r="R17" s="381"/>
+      <c r="S17" s="381"/>
+      <c r="T17" s="381"/>
+      <c r="U17" s="381"/>
+      <c r="V17" s="381"/>
+      <c r="W17" s="381"/>
+      <c r="X17" s="381"/>
+      <c r="Y17" s="381"/>
+      <c r="Z17" s="381"/>
       <c r="AB17" s="116" t="str">
         <f>B17</f>
         <v xml:space="preserve">ONR 3  -  RSE : S'engager pour des pratiques numériques éthiques et responsables </v>
@@ -15957,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="18" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A18" s="199"/>
       <c r="B18" s="219" t="str">
         <f>'ONR 3'!B7</f>
@@ -16092,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="205" customFormat="1" ht="342">
+    <row r="19" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A19" s="199"/>
       <c r="B19" s="219" t="s">
         <v>61</v>
@@ -16226,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="20" spans="1:38" s="205" customFormat="1" ht="76">
       <c r="A20" s="199"/>
       <c r="B20" s="219" t="s">
         <v>63</v>
@@ -16360,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="21" spans="1:38" s="205" customFormat="1" ht="19">
       <c r="A21" s="199"/>
       <c r="B21" s="238" t="s">
         <v>65</v>
@@ -16494,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="205" customFormat="1" ht="342">
+    <row r="22" spans="1:38" s="205" customFormat="1" ht="19">
       <c r="A22" s="199"/>
       <c r="B22" s="238" t="s">
         <v>67</v>
@@ -16628,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="23" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A23" s="199"/>
       <c r="B23" s="219" t="s">
         <v>69</v>
@@ -16762,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" s="205" customFormat="1" ht="343" thickBot="1">
+    <row r="24" spans="1:38" s="205" customFormat="1" ht="20" thickBot="1">
       <c r="A24" s="199"/>
       <c r="B24" s="220" t="s">
         <v>71</v>
@@ -16898,34 +16918,34 @@
     </row>
     <row r="25" spans="1:38" s="116" customFormat="1" ht="23" thickBot="1">
       <c r="A25" s="115"/>
-      <c r="B25" s="360" t="str">
+      <c r="B25" s="362" t="str">
         <f>'ONR 4'!B2:C2</f>
         <v>ONR 4  -  RESILIENCE ET STRATEGIE :  S'engager vers un numérique responsable, indispensable pour assurer la résilience des organisations</v>
       </c>
-      <c r="C25" s="361"/>
-      <c r="D25" s="361"/>
-      <c r="E25" s="361"/>
-      <c r="F25" s="361"/>
-      <c r="G25" s="361"/>
-      <c r="H25" s="361"/>
-      <c r="I25" s="361"/>
-      <c r="J25" s="361"/>
-      <c r="K25" s="361"/>
-      <c r="L25" s="361"/>
-      <c r="M25" s="361"/>
-      <c r="N25" s="361"/>
-      <c r="O25" s="361"/>
-      <c r="P25" s="361"/>
-      <c r="Q25" s="361"/>
-      <c r="R25" s="361"/>
-      <c r="S25" s="361"/>
-      <c r="T25" s="361"/>
-      <c r="U25" s="361"/>
-      <c r="V25" s="361"/>
-      <c r="W25" s="361"/>
-      <c r="X25" s="361"/>
-      <c r="Y25" s="361"/>
-      <c r="Z25" s="378"/>
+      <c r="C25" s="363"/>
+      <c r="D25" s="363"/>
+      <c r="E25" s="363"/>
+      <c r="F25" s="363"/>
+      <c r="G25" s="363"/>
+      <c r="H25" s="363"/>
+      <c r="I25" s="363"/>
+      <c r="J25" s="363"/>
+      <c r="K25" s="363"/>
+      <c r="L25" s="363"/>
+      <c r="M25" s="363"/>
+      <c r="N25" s="363"/>
+      <c r="O25" s="363"/>
+      <c r="P25" s="363"/>
+      <c r="Q25" s="363"/>
+      <c r="R25" s="363"/>
+      <c r="S25" s="363"/>
+      <c r="T25" s="363"/>
+      <c r="U25" s="363"/>
+      <c r="V25" s="363"/>
+      <c r="W25" s="363"/>
+      <c r="X25" s="363"/>
+      <c r="Y25" s="363"/>
+      <c r="Z25" s="380"/>
       <c r="AB25" s="116" t="str">
         <f>B25</f>
         <v>ONR 4  -  RESILIENCE ET STRATEGIE :  S'engager vers un numérique responsable, indispensable pour assurer la résilience des organisations</v>
@@ -16970,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="205" customFormat="1" ht="380">
+    <row r="26" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A26" s="199"/>
       <c r="B26" s="218" t="str">
         <f>'ONR 4'!B7</f>
@@ -17105,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="205" customFormat="1" ht="342">
+    <row r="27" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A27" s="199"/>
       <c r="B27" s="219" t="str">
         <f>'ONR 4'!B8</f>
@@ -17240,7 +17260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="28" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A28" s="199"/>
       <c r="B28" s="219" t="str">
         <f>'ONR 4'!B9</f>
@@ -17375,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="205" customFormat="1" ht="409.6" thickBot="1">
+    <row r="29" spans="1:38" s="205" customFormat="1" ht="20" thickBot="1">
       <c r="A29" s="199"/>
       <c r="B29" s="219" t="str">
         <f>'ONR 4'!B10</f>
@@ -17512,34 +17532,34 @@
     </row>
     <row r="30" spans="1:38" s="116" customFormat="1" ht="23" thickBot="1">
       <c r="A30" s="115"/>
-      <c r="B30" s="360" t="str">
+      <c r="B30" s="362" t="str">
         <f>'ONR 5'!B2:C2</f>
         <v>ONR 5  -  MANAGEMENT :  S'engager à faire les choses avec sens en respectant et en préservant les ressources qui produisent</v>
       </c>
-      <c r="C30" s="361"/>
-      <c r="D30" s="361"/>
-      <c r="E30" s="361"/>
-      <c r="F30" s="361"/>
-      <c r="G30" s="361"/>
-      <c r="H30" s="361"/>
-      <c r="I30" s="361"/>
-      <c r="J30" s="361"/>
-      <c r="K30" s="361"/>
-      <c r="L30" s="361"/>
-      <c r="M30" s="361"/>
-      <c r="N30" s="361"/>
-      <c r="O30" s="361"/>
-      <c r="P30" s="361"/>
-      <c r="Q30" s="361"/>
-      <c r="R30" s="361"/>
-      <c r="S30" s="361"/>
-      <c r="T30" s="361"/>
-      <c r="U30" s="361"/>
-      <c r="V30" s="361"/>
-      <c r="W30" s="361"/>
-      <c r="X30" s="361"/>
-      <c r="Y30" s="361"/>
-      <c r="Z30" s="362"/>
+      <c r="C30" s="363"/>
+      <c r="D30" s="363"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="363"/>
+      <c r="G30" s="363"/>
+      <c r="H30" s="363"/>
+      <c r="I30" s="363"/>
+      <c r="J30" s="363"/>
+      <c r="K30" s="363"/>
+      <c r="L30" s="363"/>
+      <c r="M30" s="363"/>
+      <c r="N30" s="363"/>
+      <c r="O30" s="363"/>
+      <c r="P30" s="363"/>
+      <c r="Q30" s="363"/>
+      <c r="R30" s="363"/>
+      <c r="S30" s="363"/>
+      <c r="T30" s="363"/>
+      <c r="U30" s="363"/>
+      <c r="V30" s="363"/>
+      <c r="W30" s="363"/>
+      <c r="X30" s="363"/>
+      <c r="Y30" s="363"/>
+      <c r="Z30" s="364"/>
       <c r="AB30" s="116" t="str">
         <f>B30</f>
         <v>ONR 5  -  MANAGEMENT :  S'engager à faire les choses avec sens en respectant et en préservant les ressources qui produisent</v>
@@ -17584,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" s="205" customFormat="1" ht="398">
+    <row r="31" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A31" s="199"/>
       <c r="B31" s="218" t="str">
         <f>'ONR 5'!B7</f>
@@ -17719,7 +17739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="205" customFormat="1" ht="342">
+    <row r="32" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A32" s="199"/>
       <c r="B32" s="219" t="str">
         <f>'ONR 5'!B8</f>
@@ -17854,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="33" spans="1:38" s="205" customFormat="1" ht="38">
       <c r="A33" s="199"/>
       <c r="B33" s="219" t="str">
         <f>'ONR 5'!B9</f>
@@ -17862,7 +17882,7 @@
       </c>
       <c r="C33" s="218" t="str">
         <f>'ONR 5'!C9</f>
-        <v>En sollicitant l’engagement et l’expertise des parties prenantes ( sur les sujets environnementaux, sociaux et sociétaux)</v>
+        <v>En sollicitant l’engagement et l’expertise des parties prenantes (sur les sujets environnementaux, sociaux et sociétaux)</v>
       </c>
       <c r="D33" s="231">
         <f>'ONR 5'!D9</f>
@@ -17989,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" s="205" customFormat="1" ht="409.6">
+    <row r="34" spans="1:38" s="205" customFormat="1" ht="57">
       <c r="A34" s="199"/>
       <c r="B34" s="219" t="str">
         <f>'ONR 5'!B10</f>
@@ -18124,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="205" customFormat="1" ht="361">
+    <row r="35" spans="1:38" s="205" customFormat="1" ht="19">
       <c r="A35" s="199"/>
       <c r="B35" s="219" t="str">
         <f>'ONR 5'!B11</f>
@@ -18259,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="409.6">
+    <row r="36" spans="1:38" ht="38">
       <c r="B36" s="219" t="str">
         <f>'ONR 5'!B12</f>
         <v>5.6</v>
@@ -18408,384 +18428,384 @@
     <mergeCell ref="B4:Z4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="102" priority="5428">
+    <cfRule type="expression" dxfId="95" priority="5428">
       <formula>FIND("Réagir",B1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="5423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="5423" stopIfTrue="1">
       <formula>ISTEXT(A1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="5424">
+    <cfRule type="expression" dxfId="93" priority="5424">
       <formula>FIND("Agir",B1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="5425">
+    <cfRule type="expression" dxfId="92" priority="5425">
       <formula>FIND("Réagir",B1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="5426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="5426" stopIfTrue="1">
       <formula>ISTEXT(A1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="5427">
+    <cfRule type="expression" dxfId="90" priority="5427">
       <formula>FIND("Agir",B1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="expression" dxfId="96" priority="5414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5414" stopIfTrue="1">
       <formula>ISTEXT(A1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="5415">
+    <cfRule type="expression" dxfId="88" priority="5415">
       <formula>FIND("Agir",B1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="5416">
+    <cfRule type="expression" dxfId="87" priority="5416">
       <formula>FIND("Réagir",B1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="93" priority="5409">
+    <cfRule type="expression" dxfId="86" priority="5409">
       <formula>FIND("Agir",B2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="5413">
+    <cfRule type="expression" dxfId="85" priority="5413">
       <formula>FIND("Réagir",B2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="5412">
+    <cfRule type="expression" dxfId="84" priority="5412">
       <formula>FIND("Agir",B2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="5411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="5411" stopIfTrue="1">
       <formula>ISTEXT(A2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="5410">
+    <cfRule type="expression" dxfId="82" priority="5410">
       <formula>FIND("Réagir",B2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="5408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="5408" stopIfTrue="1">
       <formula>ISTEXT(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D11 D13:D16 D33:D36">
-    <cfRule type="expression" dxfId="87" priority="5235">
+    <cfRule type="expression" dxfId="80" priority="5235">
       <formula>FIND("Conforter",F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D11 D33:D36 V18:Z24 V26:Z29 D13:D16">
-    <cfRule type="expression" dxfId="86" priority="5234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="5234" stopIfTrue="1">
       <formula>ISTEXT(D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D11">
-    <cfRule type="expression" dxfId="85" priority="5227">
+    <cfRule type="expression" dxfId="78" priority="5227">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="5226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="5226" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="83" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="350" stopIfTrue="1">
       <formula>ISTEXT(D8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="351">
+    <cfRule type="expression" dxfId="75" priority="351">
       <formula>FIND("Conforter",F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D16 I13:I16 D18:D24 I18:I24 D26:D29 I26:I29 D31:D36 I31:I36">
-    <cfRule type="expression" dxfId="81" priority="5554">
+    <cfRule type="expression" dxfId="74" priority="5554">
       <formula>FIND("Réagir",E13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="5553">
+    <cfRule type="expression" dxfId="73" priority="5553">
       <formula>FIND("Agir",E13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="79" priority="5129">
+    <cfRule type="expression" dxfId="72" priority="5129">
       <formula>FIND("Conforter",F18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="5128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="5128" stopIfTrue="1">
       <formula>ISTEXT(D18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D24 D26:D29 D31:D36">
-    <cfRule type="expression" dxfId="77" priority="5497">
+    <cfRule type="expression" dxfId="70" priority="5497">
       <formula>FIND("Conforter",F18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D24">
-    <cfRule type="expression" dxfId="76" priority="5118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="5118" stopIfTrue="1">
       <formula>ISTEXT(D18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="5119">
+    <cfRule type="expression" dxfId="68" priority="5119">
       <formula>FIND("Conforter",F18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D23">
-    <cfRule type="expression" dxfId="74" priority="5121">
+    <cfRule type="expression" dxfId="67" priority="5121">
       <formula>FIND("Conforter",F20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="5120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="5120" stopIfTrue="1">
       <formula>ISTEXT(D20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="72" priority="4990" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="4990" stopIfTrue="1">
       <formula>ISTEXT(D21)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="4991">
+    <cfRule type="expression" dxfId="64" priority="4991">
       <formula>FIND("Conforter",F21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="70" priority="4860" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="4860" stopIfTrue="1">
       <formula>ISTEXT(D26)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="4861">
+    <cfRule type="expression" dxfId="62" priority="4861">
       <formula>FIND("Conforter",F26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="68" priority="4573">
+    <cfRule type="expression" dxfId="61" priority="4573">
       <formula>FIND("Conforter",F31)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="4572" stopIfTrue="1">
       <formula>ISTEXT(D31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36 D18:D24 D26:D29">
-    <cfRule type="expression" dxfId="66" priority="5496" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="5496" stopIfTrue="1">
       <formula>ISTEXT(D18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="expression" dxfId="65" priority="4435">
+    <cfRule type="expression" dxfId="58" priority="4435">
       <formula>FIND("Conforter",F35)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="4434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="4434" stopIfTrue="1">
       <formula>ISTEXT(D35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H16 F31:H36">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>FIND("Conforter",I13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H24 F26:H29">
-    <cfRule type="expression" dxfId="62" priority="5547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="5547" stopIfTrue="1">
       <formula>ISTEXT(F18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5548">
+    <cfRule type="expression" dxfId="54" priority="5548">
       <formula>FIND("Conforter",I18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:H36 F13:H16">
-    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="6" stopIfTrue="1">
       <formula>ISTEXT(F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H16 G26:H29 G31:H36 G18:H24">
-    <cfRule type="expression" dxfId="59" priority="5545">
+    <cfRule type="expression" dxfId="52" priority="5545">
       <formula>FIND("Agir",I13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="5546">
+    <cfRule type="expression" dxfId="51" priority="5546">
       <formula>FIND("Réagir",I13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H24">
-    <cfRule type="expression" dxfId="57" priority="5150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="5150" stopIfTrue="1">
       <formula>ISTEXT(G18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="5151">
+    <cfRule type="expression" dxfId="49" priority="5151">
       <formula>FIND("Conforter",J18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H36 G13:H16 G26:H29">
-    <cfRule type="expression" dxfId="55" priority="5544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="5544" stopIfTrue="1">
       <formula>ISTEXT(G13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H36">
-    <cfRule type="expression" dxfId="54" priority="5393">
+    <cfRule type="expression" dxfId="47" priority="5393">
       <formula>FIND("Conforter",J33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H36">
-    <cfRule type="expression" dxfId="53" priority="4437">
+    <cfRule type="expression" dxfId="46" priority="4437">
       <formula>FIND("Conforter",J35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:I24">
-    <cfRule type="expression" dxfId="52" priority="5152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="5152" stopIfTrue="1">
       <formula>ISTEXT(G18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:I36">
-    <cfRule type="expression" dxfId="51" priority="4594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="4594" stopIfTrue="1">
       <formula>ISTEXT(G33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:I36">
-    <cfRule type="expression" dxfId="50" priority="4436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="4436" stopIfTrue="1">
       <formula>ISTEXT(G35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H16">
-    <cfRule type="expression" dxfId="49" priority="5327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5327" stopIfTrue="1">
       <formula>ISTEXT(H13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="5328">
+    <cfRule type="expression" dxfId="41" priority="5328">
       <formula>FIND("Conforter",J13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="47" priority="4838">
+    <cfRule type="expression" dxfId="40" priority="4838">
       <formula>FIND("Conforter",J26)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4837" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4837" stopIfTrue="1">
       <formula>ISTEXT(H26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H36">
-    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
       <formula>ISTEXT(H31)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>FIND("Conforter",K31)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="4550">
+    <cfRule type="expression" dxfId="36" priority="4550">
       <formula>FIND("Conforter",J31)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4549" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4549" stopIfTrue="1">
       <formula>ISTEXT(H31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I11">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>FIND("Agir",J5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>FIND("Réagir",J5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>ISTEXT(I5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I16 I18:I24 I26:I29 I31:I36 D18:D24 D26:D29 D31:D36 D13:D16">
-    <cfRule type="expression" dxfId="38" priority="5552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5552" stopIfTrue="1">
       <formula>ISTEXT(D13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I24">
-    <cfRule type="expression" dxfId="37" priority="5153">
+    <cfRule type="expression" dxfId="30" priority="5153">
       <formula>FIND("Agir",J18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5154">
+    <cfRule type="expression" dxfId="29" priority="5154">
       <formula>FIND("Réagir",J18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I29">
-    <cfRule type="expression" dxfId="35" priority="4876">
+    <cfRule type="expression" dxfId="28" priority="4876">
       <formula>FIND("Réagir",J27)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4875">
+    <cfRule type="expression" dxfId="27" priority="4875">
       <formula>FIND("Agir",J27)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4874" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4874" stopIfTrue="1">
       <formula>ISTEXT(I27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="32" priority="4586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="4586" stopIfTrue="1">
       <formula>ISTEXT(I32)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4588">
+    <cfRule type="expression" dxfId="24" priority="4588">
       <formula>FIND("Réagir",J32)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4587">
+    <cfRule type="expression" dxfId="23" priority="4587">
       <formula>FIND("Agir",J32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I36">
-    <cfRule type="expression" dxfId="29" priority="4439">
+    <cfRule type="expression" dxfId="22" priority="4439">
       <formula>FIND("Agir",J35)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4440">
+    <cfRule type="expression" dxfId="21" priority="4440">
       <formula>FIND("Réagir",J35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J11 I18:J24 I26:J29 I31:J36 V18:Z24 V26:Z29 V3:Z3 V5:Z11 V13:Z16 V31:Y36 V1:V2 I3:J3 I13:I16">
-    <cfRule type="containsText" dxfId="27" priority="5549" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="20" priority="5549" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J11 J13:J16 J18:J24 J26:J29 J31:J36">
-    <cfRule type="containsText" dxfId="26" priority="5501" operator="containsText" text="Intervention prioritaire">
+    <cfRule type="containsText" dxfId="19" priority="5501" operator="containsText" text="Intervention prioritaire">
       <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5502" stopIfTrue="1" operator="containsText" text="Non pertinent">
+    <cfRule type="containsText" dxfId="18" priority="5502" stopIfTrue="1" operator="containsText" text="Non pertinent">
       <formula>NOT(ISERROR(SEARCH("Non pertinent",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="5503" stopIfTrue="1" operator="containsText" text="consolidation">
+    <cfRule type="containsText" dxfId="17" priority="5503" stopIfTrue="1" operator="containsText" text="consolidation">
       <formula>NOT(ISERROR(SEARCH("consolidation",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5504" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+    <cfRule type="containsText" dxfId="16" priority="5504" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
       <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5505" stopIfTrue="1" operator="containsText" text="Urgent">
+    <cfRule type="containsText" dxfId="15" priority="5505" stopIfTrue="1" operator="containsText" text="Urgent">
       <formula>NOT(ISERROR(SEARCH("Urgent",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5506" stopIfTrue="1" operator="containsText" text="moyen">
+    <cfRule type="containsText" dxfId="14" priority="5506" stopIfTrue="1" operator="containsText" text="moyen">
       <formula>NOT(ISERROR(SEARCH("moyen",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5507" stopIfTrue="1" operator="containsText" text="long">
+    <cfRule type="containsText" dxfId="13" priority="5507" stopIfTrue="1" operator="containsText" text="long">
       <formula>NOT(ISERROR(SEARCH("long",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11 J18:J24 J26:J29 J31:J36">
-    <cfRule type="containsText" dxfId="19" priority="5541" stopIfTrue="1" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="12" priority="5541" stopIfTrue="1" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V2 I3:J3 I5:J11 I13:I16 I18:J24 I26:J29 I31:J36">
-    <cfRule type="containsText" dxfId="18" priority="5551" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="11" priority="5551" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5550" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="10" priority="5550" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:Z3 V5:Z11 V13:Z16 V18:Z24 V26:Z29 V31:Y36">
-    <cfRule type="containsText" dxfId="16" priority="94" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="9" priority="94" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",V3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:Z11 V13:Z16 V31:Z36">
-    <cfRule type="expression" dxfId="15" priority="84">
+    <cfRule type="expression" dxfId="8" priority="84">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="85">
+    <cfRule type="expression" dxfId="7" priority="85">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:Z24 V26:Z29 V5:Z11 V13:Z16 V31:Y36 V3:Z3">
-    <cfRule type="containsText" dxfId="13" priority="93" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="6" priority="93" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",V3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:Z24 V26:Z29">
-    <cfRule type="expression" dxfId="12" priority="91">
+    <cfRule type="expression" dxfId="5" priority="91">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="90">
+    <cfRule type="expression" dxfId="4" priority="90">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:Z36 V5:Z11 V13:Z16">
-    <cfRule type="expression" dxfId="10" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="83" stopIfTrue="1">
       <formula>ISTEXT(V5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:Z36">
-    <cfRule type="containsText" dxfId="9" priority="17" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="2" priority="17" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",Z31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="1" priority="18" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",Z31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="19" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="0" priority="19" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",Z31)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18875,10 +18895,10 @@
       <c r="AF1" s="62"/>
     </row>
     <row r="2" spans="2:32" ht="108" customHeight="1">
-      <c r="B2" s="384" t="s">
+      <c r="B2" s="386" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="385"/>
+      <c r="C2" s="387"/>
       <c r="D2" s="67" t="str">
         <f>'Résultats détaillés'!AC3</f>
         <v>Nombre de cibles</v>
@@ -18921,10 +18941,10 @@
       </c>
     </row>
     <row r="3" spans="2:32" ht="33.75" customHeight="1">
-      <c r="B3" s="386" t="s">
+      <c r="B3" s="388" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="387"/>
+      <c r="C3" s="389"/>
       <c r="D3" s="45">
         <f t="shared" ref="D3:M3" si="0">SUM(D4:D8)</f>
         <v>27</v>
@@ -19203,42 +19223,42 @@
     </row>
     <row r="9" spans="2:32" s="1" customFormat="1"/>
     <row r="10" spans="2:32" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="390" t="s">
+      <c r="B10" s="392" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="390"/>
+      <c r="C10" s="392"/>
     </row>
     <row r="11" spans="2:32" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B11" s="391" t="s">
+      <c r="B11" s="393" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="391"/>
+      <c r="C11" s="393"/>
     </row>
     <row r="12" spans="2:32" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B12" s="392" t="s">
+      <c r="B12" s="394" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="392"/>
+      <c r="C12" s="394"/>
     </row>
     <row r="13" spans="2:32" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B13" s="388" t="s">
+      <c r="B13" s="390" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="388"/>
+      <c r="C13" s="390"/>
     </row>
     <row r="14" spans="2:32" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B14" s="389" t="s">
+      <c r="B14" s="391" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="389"/>
+      <c r="C14" s="391"/>
     </row>
     <row r="15" spans="2:32" s="1" customFormat="1"/>
     <row r="16" spans="2:32" s="1" customFormat="1"/>
     <row r="17" spans="3:13" s="1" customFormat="1"/>
     <row r="18" spans="3:13" s="1" customFormat="1"/>
     <row r="19" spans="3:13" s="1" customFormat="1" ht="24">
-      <c r="C19" s="383"/>
-      <c r="D19" s="383"/>
+      <c r="C19" s="385"/>
+      <c r="D19" s="385"/>
       <c r="E19" s="284"/>
       <c r="F19" s="284"/>
       <c r="G19" s="283"/>
@@ -21208,10 +21228,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:3" ht="70.5" customHeight="1">
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="326" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="348"/>
+      <c r="C2" s="327"/>
     </row>
     <row r="3" spans="2:3" ht="17" thickBot="1"/>
     <row r="4" spans="2:3" s="32" customFormat="1" ht="58.5" customHeight="1">
@@ -21281,7 +21301,7 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -21338,14 +21358,14 @@
       <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="26" thickBot="1">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="328" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="326"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="330"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -21353,46 +21373,46 @@
       <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="17" thickBot="1">
-      <c r="B3" s="349"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="350"/>
-      <c r="O3" s="350"/>
-      <c r="P3" s="350"/>
-      <c r="Q3" s="350"/>
-      <c r="R3" s="350"/>
-      <c r="S3" s="350"/>
-      <c r="T3" s="350"/>
-      <c r="U3" s="350"/>
-      <c r="V3" s="350"/>
-      <c r="W3" s="350"/>
-      <c r="X3" s="350"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="345"/>
+      <c r="S3" s="345"/>
+      <c r="T3" s="345"/>
+      <c r="U3" s="345"/>
+      <c r="V3" s="345"/>
+      <c r="W3" s="345"/>
+      <c r="X3" s="345"/>
     </row>
     <row r="4" spans="1:24" ht="19">
       <c r="A4" s="46"/>
-      <c r="B4" s="336"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="340" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="341"/>
-      <c r="F4" s="342" t="s">
+      <c r="E4" s="339"/>
+      <c r="F4" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="344" t="s">
+      <c r="G4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="345"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="79" t="s">
         <v>14</v>
       </c>
@@ -21407,16 +21427,16 @@
       <c r="S4" s="80"/>
       <c r="T4" s="80"/>
       <c r="U4" s="80"/>
-      <c r="V4" s="351" t="s">
+      <c r="V4" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="352"/>
-      <c r="X4" s="352"/>
+      <c r="W4" s="347"/>
+      <c r="X4" s="347"/>
     </row>
     <row r="5" spans="1:24" s="53" customFormat="1" ht="355" customHeight="1" thickBot="1">
       <c r="A5" s="52"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="339"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="158" t="s">
         <v>16</v>
       </c>
@@ -21479,30 +21499,30 @@
     </row>
     <row r="6" spans="1:24" s="60" customFormat="1" ht="19" thickBot="1">
       <c r="A6" s="59"/>
-      <c r="B6" s="327" t="s">
+      <c r="B6" s="331" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329"/>
-      <c r="J6" s="329"/>
-      <c r="K6" s="329"/>
-      <c r="L6" s="329"/>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="329"/>
-      <c r="P6" s="329"/>
-      <c r="Q6" s="329"/>
-      <c r="R6" s="329"/>
-      <c r="S6" s="329"/>
-      <c r="T6" s="329"/>
-      <c r="U6" s="329"/>
-      <c r="V6" s="329"/>
-      <c r="W6" s="328"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="333"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="333"/>
+      <c r="N6" s="333"/>
+      <c r="O6" s="333"/>
+      <c r="P6" s="333"/>
+      <c r="Q6" s="333"/>
+      <c r="R6" s="333"/>
+      <c r="S6" s="333"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="333"/>
+      <c r="W6" s="332"/>
       <c r="X6" s="292"/>
     </row>
     <row r="7" spans="1:24" s="137" customFormat="1" ht="42">
@@ -21516,7 +21536,7 @@
       <c r="D7" s="139"/>
       <c r="E7" s="169"/>
       <c r="F7" s="166"/>
-      <c r="G7" s="393"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="140"/>
       <c r="I7" s="172"/>
       <c r="J7" s="110" t="str">
@@ -21582,7 +21602,7 @@
       <c r="D8" s="139"/>
       <c r="E8" s="169"/>
       <c r="F8" s="166"/>
-      <c r="G8" s="393"/>
+      <c r="G8" s="324"/>
       <c r="H8" s="140"/>
       <c r="I8" s="172"/>
       <c r="J8" s="110" t="str">
@@ -21648,7 +21668,7 @@
       <c r="D9" s="139"/>
       <c r="E9" s="169"/>
       <c r="F9" s="166"/>
-      <c r="G9" s="393"/>
+      <c r="G9" s="324"/>
       <c r="H9" s="140"/>
       <c r="I9" s="172"/>
       <c r="J9" s="110" t="str">
@@ -21714,7 +21734,7 @@
       <c r="D10" s="139"/>
       <c r="E10" s="170"/>
       <c r="F10" s="168"/>
-      <c r="G10" s="394"/>
+      <c r="G10" s="325"/>
       <c r="H10" s="140"/>
       <c r="I10" s="172"/>
       <c r="J10" s="144" t="str">
@@ -21780,7 +21800,7 @@
       <c r="D11" s="139"/>
       <c r="E11" s="170"/>
       <c r="F11" s="168"/>
-      <c r="G11" s="394"/>
+      <c r="G11" s="325"/>
       <c r="H11" s="140"/>
       <c r="I11" s="172"/>
       <c r="J11" s="144" t="str">
@@ -21846,7 +21866,7 @@
       <c r="D12" s="139"/>
       <c r="E12" s="171"/>
       <c r="F12" s="167"/>
-      <c r="G12" s="394"/>
+      <c r="G12" s="325"/>
       <c r="H12" s="140"/>
       <c r="I12" s="172"/>
       <c r="J12" s="147" t="str">
@@ -21911,7 +21931,7 @@
       <c r="D13" s="139"/>
       <c r="E13" s="171"/>
       <c r="F13" s="282"/>
-      <c r="G13" s="394"/>
+      <c r="G13" s="325"/>
       <c r="H13" s="140"/>
       <c r="I13" s="172"/>
       <c r="J13" s="147" t="str">
@@ -21978,247 +21998,247 @@
     <mergeCell ref="V4:X4"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
-  <conditionalFormatting sqref="A4 G7 I7:I13">
-    <cfRule type="expression" dxfId="406" priority="269">
+  <conditionalFormatting sqref="A4 I7:I13 G7">
+    <cfRule type="expression" dxfId="405" priority="269">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="270">
+    <cfRule type="expression" dxfId="404" priority="270">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 I7:I13">
-    <cfRule type="expression" dxfId="404" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="268" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="403" priority="267">
+    <cfRule type="expression" dxfId="402" priority="267">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="266">
+    <cfRule type="expression" dxfId="401" priority="266">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="265" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="264">
+    <cfRule type="expression" dxfId="399" priority="264">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="263">
+    <cfRule type="expression" dxfId="398" priority="263">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="262" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D13">
-    <cfRule type="expression" dxfId="397" priority="76">
+    <cfRule type="expression" dxfId="396" priority="76">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="75" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="79" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="80">
+    <cfRule type="expression" dxfId="393" priority="80">
       <formula>FIND("Agir",E7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="81">
+    <cfRule type="expression" dxfId="392" priority="81">
       <formula>FIND("Réagir",E7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13 F7">
-    <cfRule type="expression" dxfId="392" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="77" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="391" priority="68">
+    <cfRule type="expression" dxfId="390" priority="68">
       <formula>FIND("Conforter",F9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="67" stopIfTrue="1">
       <formula>ISTEXT(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="389" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="13" stopIfTrue="1">
       <formula>ISTEXT(D10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="14">
+    <cfRule type="expression" dxfId="387" priority="14">
       <formula>FIND("Conforter",F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 D8:D13">
-    <cfRule type="expression" dxfId="387" priority="78">
+    <cfRule type="expression" dxfId="386" priority="78">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F13">
-    <cfRule type="expression" dxfId="386" priority="119">
+    <cfRule type="expression" dxfId="385" priority="119">
       <formula>FIND("Conforter",I8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H7 F8:H13">
-    <cfRule type="expression" dxfId="385" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="115" stopIfTrue="1">
       <formula>ISTEXT(F7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H13">
-    <cfRule type="expression" dxfId="384" priority="114">
+    <cfRule type="expression" dxfId="383" priority="114">
       <formula>FIND("Conforter",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="113" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H13">
-    <cfRule type="expression" dxfId="382" priority="93">
+    <cfRule type="expression" dxfId="381" priority="93">
       <formula>FIND("Conforter",J9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="expression" dxfId="381" priority="16">
+    <cfRule type="expression" dxfId="380" priority="16">
       <formula>FIND("Conforter",J10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="15" stopIfTrue="1">
       <formula>ISTEXT(G10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I13">
-    <cfRule type="expression" dxfId="379" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="92" stopIfTrue="1">
       <formula>ISTEXT(G9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 G8:H13">
-    <cfRule type="expression" dxfId="378" priority="117">
+    <cfRule type="expression" dxfId="377" priority="117">
       <formula>FIND("Réagir",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="116">
+    <cfRule type="expression" dxfId="376" priority="116">
       <formula>FIND("Agir",I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H13">
-    <cfRule type="expression" dxfId="376" priority="66">
+    <cfRule type="expression" dxfId="375" priority="66">
       <formula>FIND("Réagir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="65">
+    <cfRule type="expression" dxfId="374" priority="65">
       <formula>FIND("Agir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="64" stopIfTrue="1">
       <formula>ISTEXT(H7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I7 H8:J13 V7:W13">
+    <cfRule type="containsText" dxfId="372" priority="120" stopIfTrue="1" operator="containsText" text="Première">
+      <formula>NOT(ISERROR(SEARCH("Première",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I7 V7:W13 H8:J13">
-    <cfRule type="containsText" dxfId="373" priority="120" stopIfTrue="1" operator="containsText" text="Première">
-      <formula>NOT(ISERROR(SEARCH("Première",H7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7 V7:W13 H8:J13">
-    <cfRule type="containsText" dxfId="372" priority="121" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="371" priority="121" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="122" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="370" priority="122" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I10">
-    <cfRule type="expression" dxfId="370" priority="19">
+    <cfRule type="expression" dxfId="369" priority="19">
       <formula>FIND("Réagir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="18">
+    <cfRule type="expression" dxfId="368" priority="18">
       <formula>FIND("Agir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="17" stopIfTrue="1">
       <formula>ISTEXT(I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I13">
-    <cfRule type="expression" dxfId="367" priority="96">
+    <cfRule type="expression" dxfId="366" priority="96">
       <formula>FIND("Réagir",J9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="95">
+    <cfRule type="expression" dxfId="365" priority="95">
       <formula>FIND("Agir",J9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="expression" dxfId="365" priority="1">
+    <cfRule type="expression" dxfId="364" priority="1">
       <formula>FIND("Conforter",L12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="6">
+    <cfRule type="expression" dxfId="363" priority="6">
       <formula>FIND("Réagir",K12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="5">
+    <cfRule type="expression" dxfId="362" priority="5">
       <formula>FIND("Agir",K12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="4" stopIfTrue="1">
       <formula>ISTEXT(I12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="3">
+    <cfRule type="expression" dxfId="360" priority="3">
       <formula>FIND("Conforter",L12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="2" stopIfTrue="1">
       <formula>ISTEXT(I12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J13">
-    <cfRule type="containsText" dxfId="359" priority="88" stopIfTrue="1" operator="containsText" text="long">
+    <cfRule type="containsText" dxfId="358" priority="88" stopIfTrue="1" operator="containsText" text="long">
       <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="87" stopIfTrue="1" operator="containsText" text="moyen">
+    <cfRule type="containsText" dxfId="357" priority="87" stopIfTrue="1" operator="containsText" text="moyen">
       <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="86" stopIfTrue="1" operator="containsText" text="Urgent">
+    <cfRule type="containsText" dxfId="356" priority="86" stopIfTrue="1" operator="containsText" text="Urgent">
       <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="85" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+    <cfRule type="containsText" dxfId="355" priority="85" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
       <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="84" stopIfTrue="1" operator="containsText" text="consolidation">
+    <cfRule type="containsText" dxfId="354" priority="84" stopIfTrue="1" operator="containsText" text="consolidation">
       <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="82" operator="containsText" text="Intervention prioritaire">
+    <cfRule type="containsText" dxfId="353" priority="82" operator="containsText" text="Intervention prioritaire">
       <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="83" stopIfTrue="1" operator="containsText" text="Non pertinent">
+    <cfRule type="containsText" dxfId="352" priority="83" stopIfTrue="1" operator="containsText" text="Non pertinent">
       <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J13">
-    <cfRule type="containsText" dxfId="352" priority="112" stopIfTrue="1" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="351" priority="112" stopIfTrue="1" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V5 J5">
-    <cfRule type="containsText" dxfId="351" priority="259" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="350" priority="259" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="260" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="349" priority="260" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="261" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="348" priority="261" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:W13">
-    <cfRule type="expression" dxfId="348" priority="25">
+    <cfRule type="expression" dxfId="347" priority="25">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="24">
+    <cfRule type="expression" dxfId="346" priority="24">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="23" stopIfTrue="1">
       <formula>ISTEXT(V7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:X5">
-    <cfRule type="containsText" dxfId="345" priority="9" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="344" priority="9" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="8" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="343" priority="8" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="7" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="342" priority="7" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",W5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22300,14 +22320,14 @@
       <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="26" thickBot="1">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="328" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="326"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="330"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -22315,46 +22335,46 @@
       <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="17" thickBot="1">
-      <c r="B3" s="349"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="350"/>
-      <c r="O3" s="350"/>
-      <c r="P3" s="350"/>
-      <c r="Q3" s="350"/>
-      <c r="R3" s="350"/>
-      <c r="S3" s="350"/>
-      <c r="T3" s="350"/>
-      <c r="U3" s="350"/>
-      <c r="V3" s="350"/>
-      <c r="W3" s="350"/>
-      <c r="X3" s="350"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="345"/>
+      <c r="S3" s="345"/>
+      <c r="T3" s="345"/>
+      <c r="U3" s="345"/>
+      <c r="V3" s="345"/>
+      <c r="W3" s="345"/>
+      <c r="X3" s="345"/>
     </row>
     <row r="4" spans="1:24" ht="19">
       <c r="A4" s="46"/>
-      <c r="B4" s="336"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="340" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="341"/>
-      <c r="F4" s="342" t="s">
+      <c r="E4" s="339"/>
+      <c r="F4" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="344" t="s">
+      <c r="G4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="345"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="79" t="s">
         <v>14</v>
       </c>
@@ -22369,16 +22389,16 @@
       <c r="S4" s="80"/>
       <c r="T4" s="80"/>
       <c r="U4" s="80"/>
-      <c r="V4" s="351" t="s">
+      <c r="V4" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="352"/>
-      <c r="X4" s="352"/>
+      <c r="W4" s="347"/>
+      <c r="X4" s="347"/>
     </row>
     <row r="5" spans="1:24" s="53" customFormat="1" ht="216" thickBot="1">
       <c r="A5" s="52"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="339"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="158" t="s">
         <v>16</v>
       </c>
@@ -22480,7 +22500,7 @@
       <c r="D7" s="139"/>
       <c r="E7" s="169"/>
       <c r="F7" s="166"/>
-      <c r="G7" s="393"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="140"/>
       <c r="I7" s="141"/>
       <c r="J7" s="110" t="str">
@@ -22546,7 +22566,7 @@
       <c r="D8" s="139"/>
       <c r="E8" s="169"/>
       <c r="F8" s="166"/>
-      <c r="G8" s="393"/>
+      <c r="G8" s="324"/>
       <c r="H8" s="140"/>
       <c r="I8" s="141"/>
       <c r="J8" s="280" t="str">
@@ -22612,7 +22632,7 @@
       <c r="D9" s="139"/>
       <c r="E9" s="169"/>
       <c r="F9" s="166"/>
-      <c r="G9" s="393"/>
+      <c r="G9" s="324"/>
       <c r="H9" s="140"/>
       <c r="I9" s="141"/>
       <c r="J9" s="110" t="str">
@@ -22678,7 +22698,7 @@
       <c r="D10" s="139"/>
       <c r="E10" s="169"/>
       <c r="F10" s="166"/>
-      <c r="G10" s="393"/>
+      <c r="G10" s="324"/>
       <c r="H10" s="140"/>
       <c r="I10" s="141"/>
       <c r="J10" s="110"/>
@@ -22744,72 +22764,67 @@
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="342" priority="497">
+    <cfRule type="expression" dxfId="341" priority="497">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="496">
+    <cfRule type="expression" dxfId="340" priority="496">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="495" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="494">
+    <cfRule type="expression" dxfId="338" priority="494">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="493">
+    <cfRule type="expression" dxfId="337" priority="493">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="492" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="492" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="491">
+    <cfRule type="expression" dxfId="335" priority="491">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="490">
+    <cfRule type="expression" dxfId="334" priority="490">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="489" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D10 I7:I10">
-    <cfRule type="expression" dxfId="333" priority="79">
+    <cfRule type="expression" dxfId="332" priority="79">
       <formula>FIND("Réagir",E7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="78">
+    <cfRule type="expression" dxfId="331" priority="78">
       <formula>FIND("Agir",E7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D10">
-    <cfRule type="expression" dxfId="331" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="50" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="51">
+    <cfRule type="expression" dxfId="329" priority="51">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="56" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="57">
+    <cfRule type="expression" dxfId="327" priority="57">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H10">
-    <cfRule type="expression" dxfId="327" priority="73">
+    <cfRule type="expression" dxfId="326" priority="73">
       <formula>FIND("Conforter",I7)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="325" priority="72" stopIfTrue="1">
+      <formula>ISTEXT(F7)</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
-    <cfRule type="expression" dxfId="326" priority="67">
-      <formula>FIND("Conforter",J9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="66" stopIfTrue="1">
-      <formula>ISTEXT(G9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:H10">
-    <cfRule type="expression" dxfId="324" priority="72" stopIfTrue="1">
-      <formula>ISTEXT(F7)</formula>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="324" priority="1" stopIfTrue="1">
+      <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H10">
@@ -22819,113 +22834,116 @@
     <cfRule type="expression" dxfId="322" priority="65">
       <formula>FIND("Conforter",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="70">
+    <cfRule type="expression" dxfId="321" priority="71">
+      <formula>FIND("Réagir",I7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="70">
       <formula>FIND("Agir",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="71">
-      <formula>FIND("Réagir",I7)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="expression" dxfId="319" priority="66" stopIfTrue="1">
+      <formula>ISTEXT(G9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="67">
+      <formula>FIND("Conforter",J9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10 G8:H10">
-    <cfRule type="expression" dxfId="319" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="69" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10">
-    <cfRule type="expression" dxfId="318" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="45" stopIfTrue="1">
       <formula>ISTEXT(H7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="46">
+    <cfRule type="expression" dxfId="315" priority="46">
       <formula>FIND("Conforter",J7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I10 D7:D10">
-    <cfRule type="expression" dxfId="316" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="77" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J10">
-    <cfRule type="containsText" dxfId="315" priority="76" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="313" priority="75" stopIfTrue="1" operator="containsText" text="Seconde">
+      <formula>NOT(ISERROR(SEARCH("Seconde",I7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="74" stopIfTrue="1" operator="containsText" text="Première">
+      <formula>NOT(ISERROR(SEARCH("Première",I7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="311" priority="76" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",I7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="75" stopIfTrue="1" operator="containsText" text="Seconde">
-      <formula>NOT(ISERROR(SEARCH("Seconde",I7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="74" stopIfTrue="1" operator="containsText" text="Première">
-      <formula>NOT(ISERROR(SEARCH("Première",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J10">
-    <cfRule type="containsText" dxfId="312" priority="59" stopIfTrue="1" operator="containsText" text="consolidation">
+    <cfRule type="containsText" dxfId="310" priority="68" stopIfTrue="1" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="58" stopIfTrue="1" operator="containsText" text="Non pertinent">
+      <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="63" stopIfTrue="1" operator="containsText" text="long">
+      <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="62" stopIfTrue="1" operator="containsText" text="moyen">
+      <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="61" stopIfTrue="1" operator="containsText" text="Urgent">
+      <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="60" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+      <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="23" operator="containsText" text="Intervention prioritaire">
+      <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="59" stopIfTrue="1" operator="containsText" text="consolidation">
       <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="68" stopIfTrue="1" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="58" stopIfTrue="1" operator="containsText" text="Non pertinent">
-      <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="63" stopIfTrue="1" operator="containsText" text="long">
-      <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="62" stopIfTrue="1" operator="containsText" text="moyen">
-      <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="61" stopIfTrue="1" operator="containsText" text="Urgent">
-      <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="60" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
-      <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="23" operator="containsText" text="Intervention prioritaire">
-      <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V5 J5">
-    <cfRule type="containsText" dxfId="304" priority="95" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="302" priority="95" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="96" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="301" priority="96" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="97" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="300" priority="97" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:W10">
-    <cfRule type="containsText" dxfId="301" priority="22" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="299" priority="22" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",V7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="21" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="298" priority="21" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",V7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="20" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="297" priority="20" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",V7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="19">
+    <cfRule type="expression" dxfId="296" priority="19">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="18">
+    <cfRule type="expression" dxfId="295" priority="18">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="17" stopIfTrue="1">
       <formula>ISTEXT(V7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:X5">
-    <cfRule type="containsText" dxfId="295" priority="4" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="293" priority="4" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="3" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="292" priority="3" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="2" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="291" priority="2" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",W5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -22952,7 +22970,7 @@
   </sheetPr>
   <dimension ref="A1:QE13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G13"/>
     </sheetView>
   </sheetViews>
@@ -23006,16 +23024,16 @@
       <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:447" s="46" customFormat="1" ht="26" thickBot="1">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="328" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="326"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="330"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -23023,45 +23041,45 @@
       <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:447" s="46" customFormat="1" ht="17" thickBot="1">
-      <c r="B3" s="332"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="335"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
+      <c r="V3" s="352"/>
+      <c r="W3" s="353"/>
     </row>
     <row r="4" spans="1:447" ht="19">
       <c r="A4" s="46"/>
-      <c r="B4" s="336"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="340" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="341"/>
-      <c r="F4" s="342" t="s">
+      <c r="E4" s="339"/>
+      <c r="F4" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="344" t="s">
+      <c r="G4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="345"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="79" t="s">
         <v>14</v>
       </c>
@@ -23076,16 +23094,16 @@
       <c r="S4" s="80"/>
       <c r="T4" s="80"/>
       <c r="U4" s="80"/>
-      <c r="V4" s="346" t="s">
+      <c r="V4" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="346"/>
-      <c r="X4" s="346"/>
+      <c r="W4" s="354"/>
+      <c r="X4" s="354"/>
     </row>
     <row r="5" spans="1:447" s="53" customFormat="1" ht="207" customHeight="1" thickBot="1">
       <c r="A5" s="52"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="339"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="158" t="s">
         <v>16</v>
       </c>
@@ -23148,30 +23166,30 @@
     </row>
     <row r="6" spans="1:447" s="60" customFormat="1" ht="19" thickBot="1">
       <c r="A6" s="59"/>
-      <c r="B6" s="327" t="s">
+      <c r="B6" s="331" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329"/>
-      <c r="J6" s="329"/>
-      <c r="K6" s="329"/>
-      <c r="L6" s="329"/>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="329"/>
-      <c r="P6" s="329"/>
-      <c r="Q6" s="329"/>
-      <c r="R6" s="329"/>
-      <c r="S6" s="329"/>
-      <c r="T6" s="329"/>
-      <c r="U6" s="329"/>
-      <c r="V6" s="330"/>
-      <c r="W6" s="331"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="333"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="333"/>
+      <c r="N6" s="333"/>
+      <c r="O6" s="333"/>
+      <c r="P6" s="333"/>
+      <c r="Q6" s="333"/>
+      <c r="R6" s="333"/>
+      <c r="S6" s="333"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="348"/>
+      <c r="W6" s="349"/>
     </row>
     <row r="7" spans="1:447" s="137" customFormat="1" ht="63">
       <c r="A7" s="136"/>
@@ -23184,7 +23202,7 @@
       <c r="D7" s="139"/>
       <c r="E7" s="169"/>
       <c r="F7" s="166"/>
-      <c r="G7" s="393"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="140"/>
       <c r="I7" s="141"/>
       <c r="J7" s="110" t="str">
@@ -23252,7 +23270,7 @@
       <c r="D8" s="139"/>
       <c r="E8" s="169"/>
       <c r="F8" s="166"/>
-      <c r="G8" s="393"/>
+      <c r="G8" s="324"/>
       <c r="H8" s="140"/>
       <c r="I8" s="141"/>
       <c r="J8" s="110" t="str">
@@ -23318,7 +23336,7 @@
       <c r="D9" s="139"/>
       <c r="E9" s="169"/>
       <c r="F9" s="166"/>
-      <c r="G9" s="393"/>
+      <c r="G9" s="324"/>
       <c r="H9" s="140"/>
       <c r="I9" s="141"/>
       <c r="J9" s="110" t="str">
@@ -23384,7 +23402,7 @@
       <c r="D10" s="139"/>
       <c r="E10" s="169"/>
       <c r="F10" s="166"/>
-      <c r="G10" s="393"/>
+      <c r="G10" s="324"/>
       <c r="H10" s="140"/>
       <c r="I10" s="141"/>
       <c r="J10" s="110" t="str">
@@ -23873,7 +23891,7 @@
       <c r="D11" s="139"/>
       <c r="E11" s="169"/>
       <c r="F11" s="166"/>
-      <c r="G11" s="393"/>
+      <c r="G11" s="324"/>
       <c r="H11" s="140"/>
       <c r="I11" s="141"/>
       <c r="J11" s="110" t="str">
@@ -24362,7 +24380,7 @@
       <c r="D12" s="139"/>
       <c r="E12" s="171"/>
       <c r="F12" s="167"/>
-      <c r="G12" s="393"/>
+      <c r="G12" s="324"/>
       <c r="H12" s="140"/>
       <c r="I12" s="141"/>
       <c r="J12" s="147" t="str">
@@ -24428,7 +24446,7 @@
       <c r="D13" s="139"/>
       <c r="E13" s="171"/>
       <c r="F13" s="167"/>
-      <c r="G13" s="393"/>
+      <c r="G13" s="324"/>
       <c r="H13" s="140"/>
       <c r="I13" s="141"/>
       <c r="J13" s="147" t="str">
@@ -24495,353 +24513,351 @@
     <mergeCell ref="V4:X4"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="292" priority="446">
+    <cfRule type="expression" dxfId="290" priority="452">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="451" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="448" stopIfTrue="1">
-      <formula>ISTEXT(A4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="449">
-      <formula>FIND("Agir",B4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="288" priority="450">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="449">
+      <formula>FIND("Agir",B4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="448" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="452">
+    <cfRule type="expression" dxfId="285" priority="447">
+      <formula>FIND("Réagir",B4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="446">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="453">
-      <formula>FIND("Réagir",B4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="447">
+    <cfRule type="expression" dxfId="283" priority="445" stopIfTrue="1">
+      <formula>ISTEXT(A4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="453">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D13 K10:S10">
-    <cfRule type="expression" dxfId="283" priority="99">
+    <cfRule type="expression" dxfId="281" priority="88" stopIfTrue="1">
+      <formula>ISTEXT(D7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="104">
+      <formula>FIND("Réagir",E7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="103">
+      <formula>FIND("Agir",E7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="101">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="104">
-      <formula>FIND("Réagir",E7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="103">
-      <formula>FIND("Agir",E7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="101">
+    <cfRule type="expression" dxfId="277" priority="100" stopIfTrue="1">
+      <formula>ISTEXT(D7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="99">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="98" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="88" stopIfTrue="1">
-      <formula>ISTEXT(D7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="89">
+    <cfRule type="expression" dxfId="274" priority="89">
       <formula>FIND("Conforter",F7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="98" stopIfTrue="1">
-      <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D13 K10:T10">
-    <cfRule type="expression" dxfId="275" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="102" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F13">
-    <cfRule type="expression" dxfId="274" priority="147">
+    <cfRule type="expression" dxfId="272" priority="146" stopIfTrue="1">
+      <formula>ISTEXT(F7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="147">
       <formula>FIND("Conforter",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="146" stopIfTrue="1">
-      <formula>ISTEXT(F7)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="270" priority="2" stopIfTrue="1">
+      <formula>ISTEXT(G7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="3">
+      <formula>FIND("Conforter",J7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="1">
+      <formula>FIND("Conforter",J7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G12">
-    <cfRule type="expression" dxfId="272" priority="145">
+    <cfRule type="expression" dxfId="267" priority="145">
       <formula>FIND("Réagir",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="144">
+    <cfRule type="expression" dxfId="266" priority="144">
       <formula>FIND("Agir",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="143" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="269" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="27">
+      <formula>FIND("Conforter",J13)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="26" stopIfTrue="1">
       <formula>ISTEXT(G13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="24">
+    <cfRule type="expression" dxfId="262" priority="25">
+      <formula>FIND("Réagir",I13)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="24">
       <formula>FIND("Agir",I13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="25">
-      <formula>FIND("Réagir",I13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="23" stopIfTrue="1">
       <formula>ISTEXT(G13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="27">
-      <formula>FIND("Conforter",J13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H13 G8:H9 G10:G12">
-    <cfRule type="expression" dxfId="264" priority="142">
+    <cfRule type="expression" dxfId="259" priority="142">
       <formula>FIND("Conforter",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="141" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H13 G8:H12">
-    <cfRule type="expression" dxfId="262" priority="121">
+    <cfRule type="expression" dxfId="257" priority="121">
       <formula>FIND("Conforter",J7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H13">
-    <cfRule type="expression" dxfId="261" priority="87">
+    <cfRule type="expression" dxfId="256" priority="87">
       <formula>FIND("Réagir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="86">
+    <cfRule type="expression" dxfId="255" priority="86">
       <formula>FIND("Agir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="78">
+      <formula>FIND("Conforter",J7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="77" stopIfTrue="1">
       <formula>ISTEXT(H7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="78">
-      <formula>FIND("Conforter",J7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="85" stopIfTrue="1">
       <formula>ISTEXT(H7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H13 V7:V9 V13 G7:I12">
-    <cfRule type="expression" dxfId="256" priority="120" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:H13 G7:I12 V7:V9 V13">
+    <cfRule type="expression" dxfId="251" priority="120" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="255" priority="116">
+    <cfRule type="expression" dxfId="250" priority="116">
       <formula>FIND("Conforter",K13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:I13">
-    <cfRule type="expression" dxfId="254" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="115" stopIfTrue="1">
       <formula>ISTEXT(H13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I13">
-    <cfRule type="expression" dxfId="253" priority="153">
+    <cfRule type="expression" dxfId="248" priority="124">
       <formula>FIND("Réagir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="123">
+    <cfRule type="expression" dxfId="247" priority="123">
       <formula>FIND("Agir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="124">
+    <cfRule type="expression" dxfId="246" priority="151" stopIfTrue="1">
+      <formula>ISTEXT(I7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="152">
+      <formula>FIND("Agir",J7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="153">
       <formula>FIND("Réagir",J7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="152">
-      <formula>FIND("Agir",J7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="151" stopIfTrue="1">
-      <formula>ISTEXT(I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="248" priority="113">
+    <cfRule type="expression" dxfId="243" priority="114">
+      <formula>FIND("Réagir",J8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="113">
       <formula>FIND("Agir",J8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="114">
-      <formula>FIND("Réagir",J8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="112" stopIfTrue="1">
       <formula>ISTEXT(I8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="245" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="118">
+      <formula>FIND("Agir",J13)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="119">
+      <formula>FIND("Réagir",J13)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="10" stopIfTrue="1">
       <formula>ISTEXT(I13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="118">
-      <formula>FIND("Agir",J13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="119">
-      <formula>FIND("Réagir",J13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J13 V7:V13">
-    <cfRule type="containsText" dxfId="242" priority="148" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="237" priority="148" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="150" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="236" priority="149" stopIfTrue="1" operator="containsText" text="Seconde">
+      <formula>NOT(ISERROR(SEARCH("Seconde",I7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="150" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",I7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="149" stopIfTrue="1" operator="containsText" text="Seconde">
-      <formula>NOT(ISERROR(SEARCH("Seconde",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J13">
-    <cfRule type="containsText" dxfId="239" priority="108" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
-      <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="105" operator="containsText" text="Intervention prioritaire">
-      <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="106" stopIfTrue="1" operator="containsText" text="Non pertinent">
-      <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="140" stopIfTrue="1" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="107" stopIfTrue="1" operator="containsText" text="consolidation">
-      <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="234" priority="111" stopIfTrue="1" operator="containsText" text="long">
       <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="110" stopIfTrue="1" operator="containsText" text="moyen">
+    <cfRule type="containsText" dxfId="233" priority="140" stopIfTrue="1" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="110" stopIfTrue="1" operator="containsText" text="moyen">
       <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="109" stopIfTrue="1" operator="containsText" text="Urgent">
+    <cfRule type="containsText" dxfId="231" priority="109" stopIfTrue="1" operator="containsText" text="Urgent">
       <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="108" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+      <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="107" stopIfTrue="1" operator="containsText" text="consolidation">
+      <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="106" stopIfTrue="1" operator="containsText" text="Non pertinent">
+      <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="227" priority="105" operator="containsText" text="Intervention prioritaire">
+      <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="231" priority="22" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="226" priority="22" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="21" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="225" priority="20" stopIfTrue="1" operator="containsText" text="Première">
+      <formula>NOT(ISERROR(SEARCH("Première",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="224" priority="21" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="20" stopIfTrue="1" operator="containsText" text="Première">
-      <formula>NOT(ISERROR(SEARCH("Première",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="228" priority="5587">
+    <cfRule type="expression" dxfId="223" priority="5584">
+      <formula>FIND("Conforter",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="5583" stopIfTrue="1">
+      <formula>ISTEXT(T10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="5582">
+      <formula>FIND("Conforter",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="5581" stopIfTrue="1">
+      <formula>ISTEXT(T10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="5586">
+      <formula>FIND("Agir",U10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="5580">
+      <formula>FIND("Conforter",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="5587">
       <formula>FIND("Réagir",U10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="5582">
-      <formula>FIND("Conforter",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="5581" stopIfTrue="1">
-      <formula>ISTEXT(T10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="5580">
-      <formula>FIND("Conforter",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="5584">
-      <formula>FIND("Conforter",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="5583" stopIfTrue="1">
-      <formula>ISTEXT(T10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="5586">
-      <formula>FIND("Agir",U10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="expression" dxfId="221" priority="5585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="5585" stopIfTrue="1">
       <formula>ISTEXT(T10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="220" priority="5596">
+    <cfRule type="expression" dxfId="215" priority="5596">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="5589">
+    <cfRule type="expression" dxfId="214" priority="5589">
       <formula>FIND("Conforter",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="5590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="5590" stopIfTrue="1">
       <formula>ISTEXT(U10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="5591">
+    <cfRule type="expression" dxfId="212" priority="5591">
       <formula>FIND("Conforter",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="5592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="5592" stopIfTrue="1">
       <formula>ISTEXT(U10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="5593">
+    <cfRule type="expression" dxfId="210" priority="5593">
       <formula>FIND("Conforter",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="5594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="5594" stopIfTrue="1">
       <formula>ISTEXT(U10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="5595">
+    <cfRule type="expression" dxfId="208" priority="5595">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V5 J5">
-    <cfRule type="containsText" dxfId="212" priority="170" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="207" priority="170" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="169" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="206" priority="169" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="168" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="205" priority="168" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:V13">
-    <cfRule type="expression" dxfId="209" priority="84">
+    <cfRule type="expression" dxfId="204" priority="83">
+      <formula>FIND("Agir",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="84">
       <formula>FIND("Réagir",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="83">
-      <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:V12">
-    <cfRule type="expression" dxfId="207" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="38" stopIfTrue="1">
       <formula>ISTEXT(V10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W13">
-    <cfRule type="containsText" dxfId="206" priority="444" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="201" priority="444" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",W7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="443" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="200" priority="443" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",W7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="442" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="expression" dxfId="199" priority="371">
+      <formula>FIND("Réagir",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="370">
+      <formula>FIND("Agir",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="369" stopIfTrue="1">
+      <formula>ISTEXT(W7)</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="442" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",W7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="371">
-      <formula>FIND("Réagir",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="370">
-      <formula>FIND("Agir",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="369" stopIfTrue="1">
-      <formula>ISTEXT(W7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:X5">
-    <cfRule type="containsText" dxfId="200" priority="6" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="195" priority="6" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="5" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="194" priority="5" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="4" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="193" priority="4" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",W5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>ISTEXT(G7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>FIND("Conforter",J7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>FIND("Conforter",J7)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -24868,7 +24884,7 @@
   </sheetPr>
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G10"/>
     </sheetView>
   </sheetViews>
@@ -24922,14 +24938,14 @@
       <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="328" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="326"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="330"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -24937,45 +24953,45 @@
       <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="17" thickBot="1">
-      <c r="B3" s="332"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="333"/>
-      <c r="W3" s="356"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
+      <c r="V3" s="351"/>
+      <c r="W3" s="358"/>
     </row>
     <row r="4" spans="1:24" ht="21.75" customHeight="1">
       <c r="A4" s="46"/>
-      <c r="B4" s="336"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="340" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="341"/>
-      <c r="F4" s="342" t="s">
+      <c r="E4" s="339"/>
+      <c r="F4" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="344" t="s">
+      <c r="G4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="345"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="79" t="s">
         <v>14</v>
       </c>
@@ -24990,16 +25006,16 @@
       <c r="S4" s="80"/>
       <c r="T4" s="80"/>
       <c r="U4" s="80"/>
-      <c r="V4" s="351" t="s">
+      <c r="V4" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="352"/>
-      <c r="X4" s="352"/>
+      <c r="W4" s="347"/>
+      <c r="X4" s="347"/>
     </row>
     <row r="5" spans="1:24" s="53" customFormat="1" ht="168" customHeight="1" thickBot="1">
       <c r="A5" s="52"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="339"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="160" t="s">
         <v>16</v>
       </c>
@@ -25062,30 +25078,30 @@
     </row>
     <row r="6" spans="1:24" s="60" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="59"/>
-      <c r="B6" s="353" t="s">
+      <c r="B6" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="354"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="330"/>
-      <c r="M6" s="330"/>
-      <c r="N6" s="330"/>
-      <c r="O6" s="330"/>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="330"/>
-      <c r="S6" s="330"/>
-      <c r="T6" s="330"/>
-      <c r="U6" s="330"/>
-      <c r="V6" s="330"/>
-      <c r="W6" s="355"/>
+      <c r="C6" s="356"/>
+      <c r="D6" s="348"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="348"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="348"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
+      <c r="K6" s="348"/>
+      <c r="L6" s="348"/>
+      <c r="M6" s="348"/>
+      <c r="N6" s="348"/>
+      <c r="O6" s="348"/>
+      <c r="P6" s="348"/>
+      <c r="Q6" s="348"/>
+      <c r="R6" s="348"/>
+      <c r="S6" s="348"/>
+      <c r="T6" s="348"/>
+      <c r="U6" s="348"/>
+      <c r="V6" s="348"/>
+      <c r="W6" s="357"/>
     </row>
     <row r="7" spans="1:24" s="137" customFormat="1" ht="84">
       <c r="A7" s="136"/>
@@ -25098,7 +25114,7 @@
       <c r="D7" s="139"/>
       <c r="E7" s="169"/>
       <c r="F7" s="166"/>
-      <c r="G7" s="393"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="140"/>
       <c r="I7" s="141"/>
       <c r="J7" s="110" t="str">
@@ -25164,7 +25180,7 @@
       <c r="D8" s="139"/>
       <c r="E8" s="169"/>
       <c r="F8" s="166"/>
-      <c r="G8" s="393"/>
+      <c r="G8" s="324"/>
       <c r="H8" s="140"/>
       <c r="I8" s="141"/>
       <c r="J8" s="110" t="str">
@@ -25230,7 +25246,7 @@
       <c r="D9" s="139"/>
       <c r="E9" s="169"/>
       <c r="F9" s="166"/>
-      <c r="G9" s="393"/>
+      <c r="G9" s="324"/>
       <c r="H9" s="140"/>
       <c r="I9" s="141"/>
       <c r="J9" s="110" t="str">
@@ -25295,7 +25311,7 @@
       <c r="D10" s="139"/>
       <c r="E10" s="169"/>
       <c r="F10" s="166"/>
-      <c r="G10" s="393"/>
+      <c r="G10" s="324"/>
       <c r="H10" s="140"/>
       <c r="I10" s="141"/>
       <c r="J10" s="110" t="str">
@@ -25363,199 +25379,199 @@
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="A4 D7:D10 I7:I10">
-    <cfRule type="expression" dxfId="197" priority="405">
+    <cfRule type="expression" dxfId="192" priority="405">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="406">
+    <cfRule type="expression" dxfId="191" priority="406">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="195" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="404" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="403">
+    <cfRule type="expression" dxfId="189" priority="403">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="402">
+    <cfRule type="expression" dxfId="188" priority="402">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="401" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="400">
+    <cfRule type="expression" dxfId="186" priority="400">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="399">
+    <cfRule type="expression" dxfId="185" priority="399">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="398" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D10">
-    <cfRule type="expression" dxfId="188" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="340" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="341">
+    <cfRule type="expression" dxfId="182" priority="341">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I10">
-    <cfRule type="expression" dxfId="186" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="393" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H10">
-    <cfRule type="expression" dxfId="185" priority="394">
+    <cfRule type="expression" dxfId="180" priority="394">
       <formula>FIND("Conforter",I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="expression" dxfId="184" priority="383">
+    <cfRule type="expression" dxfId="179" priority="383">
       <formula>FIND("Conforter",J9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H10">
-    <cfRule type="expression" dxfId="183" priority="391">
+    <cfRule type="expression" dxfId="178" priority="391">
       <formula>FIND("Agir",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="390" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="392">
+    <cfRule type="expression" dxfId="176" priority="392">
       <formula>FIND("Réagir",I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10">
-    <cfRule type="expression" dxfId="180" priority="318">
+    <cfRule type="expression" dxfId="175" priority="318">
       <formula>FIND("Conforter",J7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I10">
-    <cfRule type="expression" dxfId="179" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="317" stopIfTrue="1">
       <formula>ISTEXT(H7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I10">
-    <cfRule type="expression" dxfId="178" priority="356">
+    <cfRule type="expression" dxfId="173" priority="356">
       <formula>FIND("Réagir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="355">
+    <cfRule type="expression" dxfId="172" priority="355">
       <formula>FIND("Agir",J7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10 G9:G10">
-    <cfRule type="expression" dxfId="176" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="382" stopIfTrue="1">
       <formula>ISTEXT(G9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10">
-    <cfRule type="expression" dxfId="175" priority="385">
+    <cfRule type="expression" dxfId="170" priority="385">
       <formula>FIND("Agir",J9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="386">
+    <cfRule type="expression" dxfId="169" priority="386">
       <formula>FIND("Réagir",J9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J10">
-    <cfRule type="containsText" dxfId="173" priority="97" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="168" priority="97" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="46" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+    <cfRule type="containsText" dxfId="167" priority="46" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
       <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="96" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="166" priority="96" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="94" stopIfTrue="1" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="165" priority="94" stopIfTrue="1" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="43" operator="containsText" text="Intervention prioritaire">
+    <cfRule type="containsText" dxfId="164" priority="43" operator="containsText" text="Intervention prioritaire">
       <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="44" stopIfTrue="1" operator="containsText" text="Non pertinent">
+    <cfRule type="containsText" dxfId="163" priority="44" stopIfTrue="1" operator="containsText" text="Non pertinent">
       <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="45" stopIfTrue="1" operator="containsText" text="consolidation">
+    <cfRule type="containsText" dxfId="162" priority="45" stopIfTrue="1" operator="containsText" text="consolidation">
       <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="93" stopIfTrue="1" operator="containsText" text="long">
+    <cfRule type="containsText" dxfId="161" priority="93" stopIfTrue="1" operator="containsText" text="long">
       <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="92" stopIfTrue="1" operator="containsText" text="moyen">
+    <cfRule type="containsText" dxfId="160" priority="92" stopIfTrue="1" operator="containsText" text="moyen">
       <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="91" stopIfTrue="1" operator="containsText" text="Urgent">
+    <cfRule type="containsText" dxfId="159" priority="91" stopIfTrue="1" operator="containsText" text="Urgent">
       <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="90" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+    <cfRule type="containsText" dxfId="158" priority="90" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
       <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="89" stopIfTrue="1" operator="containsText" text="consolidation">
+    <cfRule type="containsText" dxfId="157" priority="89" stopIfTrue="1" operator="containsText" text="consolidation">
       <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="88" stopIfTrue="1" operator="containsText" text="Non pertinent">
+    <cfRule type="containsText" dxfId="156" priority="88" stopIfTrue="1" operator="containsText" text="Non pertinent">
       <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="87" operator="containsText" text="Intervention prioritaire">
+    <cfRule type="containsText" dxfId="155" priority="87" operator="containsText" text="Intervention prioritaire">
       <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="53" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="154" priority="53" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="52" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="153" priority="52" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="51" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="152" priority="51" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="50" stopIfTrue="1" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="151" priority="50" stopIfTrue="1" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="49" stopIfTrue="1" operator="containsText" text="long">
+    <cfRule type="containsText" dxfId="150" priority="49" stopIfTrue="1" operator="containsText" text="long">
       <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="48" stopIfTrue="1" operator="containsText" text="moyen">
+    <cfRule type="containsText" dxfId="149" priority="48" stopIfTrue="1" operator="containsText" text="moyen">
       <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="47" stopIfTrue="1" operator="containsText" text="Urgent">
+    <cfRule type="containsText" dxfId="148" priority="47" stopIfTrue="1" operator="containsText" text="Urgent">
       <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="95" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="147" priority="95" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V5 I5:J5">
-    <cfRule type="containsText" dxfId="151" priority="9" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="146" priority="9" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="8" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="145" priority="8" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="7" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="144" priority="7" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:W10">
-    <cfRule type="expression" dxfId="148" priority="280">
+    <cfRule type="expression" dxfId="143" priority="280">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="279">
+    <cfRule type="expression" dxfId="142" priority="279">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="278" stopIfTrue="1">
       <formula>ISTEXT(V7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:X5">
-    <cfRule type="containsText" dxfId="145" priority="3" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="140" priority="3" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="2" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="139" priority="2" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",W5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="1" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="138" priority="1" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",W5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25586,8 +25602,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12"/>
@@ -25640,14 +25656,14 @@
       <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:24" s="46" customFormat="1" ht="26" thickBot="1">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="328" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="326"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="330"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -25655,46 +25671,46 @@
       <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="17" thickBot="1">
-      <c r="B3" s="349"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="350"/>
-      <c r="O3" s="350"/>
-      <c r="P3" s="350"/>
-      <c r="Q3" s="350"/>
-      <c r="R3" s="350"/>
-      <c r="S3" s="350"/>
-      <c r="T3" s="350"/>
-      <c r="U3" s="350"/>
-      <c r="V3" s="350"/>
-      <c r="W3" s="350"/>
-      <c r="X3" s="350"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="345"/>
+      <c r="S3" s="345"/>
+      <c r="T3" s="345"/>
+      <c r="U3" s="345"/>
+      <c r="V3" s="345"/>
+      <c r="W3" s="345"/>
+      <c r="X3" s="345"/>
     </row>
     <row r="4" spans="1:24" ht="19">
       <c r="A4" s="46"/>
-      <c r="B4" s="336"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="340" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="341"/>
-      <c r="F4" s="342" t="s">
+      <c r="E4" s="339"/>
+      <c r="F4" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="344" t="s">
+      <c r="G4" s="341"/>
+      <c r="H4" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="345"/>
+      <c r="I4" s="343"/>
       <c r="J4" s="79" t="s">
         <v>14</v>
       </c>
@@ -25709,16 +25725,16 @@
       <c r="S4" s="80"/>
       <c r="T4" s="80"/>
       <c r="U4" s="80"/>
-      <c r="V4" s="351" t="s">
+      <c r="V4" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="352"/>
-      <c r="X4" s="352"/>
+      <c r="W4" s="347"/>
+      <c r="X4" s="347"/>
     </row>
     <row r="5" spans="1:24" s="53" customFormat="1" ht="220" thickBot="1">
       <c r="A5" s="52"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="339"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="160" t="s">
         <v>16</v>
       </c>
@@ -25781,30 +25797,30 @@
     </row>
     <row r="6" spans="1:24" s="60" customFormat="1" ht="18">
       <c r="A6" s="59"/>
-      <c r="B6" s="353" t="s">
+      <c r="B6" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="354"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="330"/>
-      <c r="M6" s="330"/>
-      <c r="N6" s="330"/>
-      <c r="O6" s="330"/>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="330"/>
-      <c r="S6" s="330"/>
-      <c r="T6" s="330"/>
-      <c r="U6" s="330"/>
-      <c r="V6" s="330"/>
-      <c r="W6" s="355"/>
+      <c r="C6" s="356"/>
+      <c r="D6" s="348"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="348"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="348"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
+      <c r="K6" s="348"/>
+      <c r="L6" s="348"/>
+      <c r="M6" s="348"/>
+      <c r="N6" s="348"/>
+      <c r="O6" s="348"/>
+      <c r="P6" s="348"/>
+      <c r="Q6" s="348"/>
+      <c r="R6" s="348"/>
+      <c r="S6" s="348"/>
+      <c r="T6" s="348"/>
+      <c r="U6" s="348"/>
+      <c r="V6" s="348"/>
+      <c r="W6" s="357"/>
     </row>
     <row r="7" spans="1:24" s="137" customFormat="1" ht="43" thickBot="1">
       <c r="A7" s="136"/>
@@ -25817,7 +25833,7 @@
       <c r="D7" s="184"/>
       <c r="E7" s="169"/>
       <c r="F7" s="166"/>
-      <c r="G7" s="393"/>
+      <c r="G7" s="324"/>
       <c r="H7" s="281"/>
       <c r="I7" s="141"/>
       <c r="J7" s="110" t="str">
@@ -25883,7 +25899,7 @@
       <c r="D8" s="184"/>
       <c r="E8" s="169"/>
       <c r="F8" s="166"/>
-      <c r="G8" s="393"/>
+      <c r="G8" s="324"/>
       <c r="H8" s="281"/>
       <c r="I8" s="141"/>
       <c r="J8" s="110" t="str">
@@ -25944,12 +25960,12 @@
         <v>87</v>
       </c>
       <c r="C9" s="318" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D9" s="184"/>
       <c r="E9" s="169"/>
       <c r="F9" s="166"/>
-      <c r="G9" s="393"/>
+      <c r="G9" s="324"/>
       <c r="H9" s="281"/>
       <c r="I9" s="141"/>
       <c r="J9" s="110" t="str">
@@ -26015,7 +26031,7 @@
       <c r="D10" s="184"/>
       <c r="E10" s="169"/>
       <c r="F10" s="166"/>
-      <c r="G10" s="393"/>
+      <c r="G10" s="324"/>
       <c r="H10" s="281"/>
       <c r="I10" s="141"/>
       <c r="J10" s="110" t="str">
@@ -26081,7 +26097,7 @@
       <c r="D11" s="184"/>
       <c r="E11" s="169"/>
       <c r="F11" s="166"/>
-      <c r="G11" s="393"/>
+      <c r="G11" s="324"/>
       <c r="H11" s="281"/>
       <c r="I11" s="141"/>
       <c r="J11" s="110" t="str">
@@ -26147,7 +26163,7 @@
       <c r="D12" s="184"/>
       <c r="E12" s="169"/>
       <c r="F12" s="166"/>
-      <c r="G12" s="393"/>
+      <c r="G12" s="324"/>
       <c r="H12" s="281"/>
       <c r="I12" s="141"/>
       <c r="J12" s="110" t="str">
@@ -26215,167 +26231,162 @@
     <mergeCell ref="B3:X3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
-  <conditionalFormatting sqref="A4 D7:D12 I7:I12">
-    <cfRule type="expression" dxfId="142" priority="313">
+  <conditionalFormatting sqref="A4 I7:I12 D7:D12">
+    <cfRule type="expression" dxfId="137" priority="313">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="312">
+    <cfRule type="expression" dxfId="136" priority="312">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 I7:I12">
-    <cfRule type="expression" dxfId="140" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="311" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="139" priority="310">
+    <cfRule type="expression" dxfId="134" priority="310">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="309">
+    <cfRule type="expression" dxfId="133" priority="309">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="308" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="307">
+    <cfRule type="expression" dxfId="131" priority="307">
       <formula>FIND("Réagir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="306">
+    <cfRule type="expression" dxfId="130" priority="306">
       <formula>FIND("Agir",B4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="305" stopIfTrue="1">
       <formula>ISTEXT(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D12">
-    <cfRule type="expression" dxfId="133" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="247" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="248">
+    <cfRule type="expression" dxfId="127" priority="248">
       <formula>FIND("Conforter",F7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:G12">
-    <cfRule type="expression" dxfId="131" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="300" stopIfTrue="1">
       <formula>ISTEXT(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G12">
-    <cfRule type="expression" dxfId="130" priority="301">
+    <cfRule type="expression" dxfId="125" priority="301">
       <formula>FIND("Conforter",I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G12">
-    <cfRule type="expression" dxfId="129" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
       <formula>ISTEXT(G7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="299">
+    <cfRule type="expression" dxfId="123" priority="299">
       <formula>FIND("Réagir",I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="298">
+    <cfRule type="expression" dxfId="122" priority="298">
       <formula>FIND("Agir",I7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I10">
-    <cfRule type="expression" dxfId="126" priority="262">
+    <cfRule type="expression" dxfId="121" priority="263">
+      <formula>FIND("Réagir",J7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="262">
       <formula>FIND("Agir",J7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="261" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I12">
+    <cfRule type="expression" dxfId="119" priority="261" stopIfTrue="1">
       <formula>ISTEXT(I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="263">
-      <formula>FIND("Réagir",J7)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="123" priority="269" stopIfTrue="1">
-      <formula>ISTEXT(I11)</formula>
+  <conditionalFormatting sqref="I8:I10">
+    <cfRule type="containsText" dxfId="118" priority="1" stopIfTrue="1" operator="containsText" text="Première">
+      <formula>NOT(ISERROR(SEARCH("Première",I8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="3" stopIfTrue="1" operator="containsText" text="Terme">
+      <formula>NOT(ISERROR(SEARCH("Terme",I8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="2" stopIfTrue="1" operator="containsText" text="Seconde">
+      <formula>NOT(ISERROR(SEARCH("Seconde",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7 J8:J10 I11:J12 V7:W12">
-    <cfRule type="containsText" dxfId="122" priority="302" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="115" priority="302" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7 V7:W12 J8:J10 I11:J12">
-    <cfRule type="containsText" dxfId="121" priority="303" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="114" priority="303" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="304" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="113" priority="304" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J12">
-    <cfRule type="containsText" dxfId="119" priority="259" stopIfTrue="1" operator="containsText" text="moyen">
+    <cfRule type="containsText" dxfId="112" priority="259" stopIfTrue="1" operator="containsText" text="moyen">
       <formula>NOT(ISERROR(SEARCH("moyen",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="260" stopIfTrue="1" operator="containsText" text="long">
+    <cfRule type="containsText" dxfId="111" priority="258" stopIfTrue="1" operator="containsText" text="Urgent">
+      <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="257" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
+      <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="256" stopIfTrue="1" operator="containsText" text="consolidation">
+      <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="255" stopIfTrue="1" operator="containsText" text="Non pertinent">
+      <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="294" stopIfTrue="1" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="254" operator="containsText" text="Intervention prioritaire">
+      <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="260" stopIfTrue="1" operator="containsText" text="long">
       <formula>NOT(ISERROR(SEARCH("long",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="258" stopIfTrue="1" operator="containsText" text="Urgent">
-      <formula>NOT(ISERROR(SEARCH("Urgent",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="294" stopIfTrue="1" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="257" stopIfTrue="1" operator="containsText" text="Non Prioritaire">
-      <formula>NOT(ISERROR(SEARCH("Non Prioritaire",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="256" stopIfTrue="1" operator="containsText" text="consolidation">
-      <formula>NOT(ISERROR(SEARCH("consolidation",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="255" stopIfTrue="1" operator="containsText" text="Non pertinent">
-      <formula>NOT(ISERROR(SEARCH("Non pertinent",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="254" operator="containsText" text="Intervention prioritaire">
-      <formula>NOT(ISERROR(SEARCH("Intervention prioritaire",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4 I5:J5">
-    <cfRule type="containsText" dxfId="111" priority="20" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="104" priority="20" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="19" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="103" priority="19" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="18" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="102" priority="18" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:W12">
-    <cfRule type="expression" dxfId="108" priority="187">
+    <cfRule type="expression" dxfId="101" priority="187">
       <formula>FIND("Réagir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="186">
+    <cfRule type="expression" dxfId="100" priority="186">
       <formula>FIND("Agir",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="185" stopIfTrue="1">
       <formula>ISTEXT(V7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:X5">
-    <cfRule type="containsText" dxfId="105" priority="6" stopIfTrue="1" operator="containsText" text="Terme">
+    <cfRule type="containsText" dxfId="98" priority="6" stopIfTrue="1" operator="containsText" text="Terme">
       <formula>NOT(ISERROR(SEARCH("Terme",V5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="5" stopIfTrue="1" operator="containsText" text="Seconde">
+    <cfRule type="containsText" dxfId="97" priority="5" stopIfTrue="1" operator="containsText" text="Seconde">
       <formula>NOT(ISERROR(SEARCH("Seconde",V5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="4" stopIfTrue="1" operator="containsText" text="Première">
+    <cfRule type="containsText" dxfId="96" priority="4" stopIfTrue="1" operator="containsText" text="Première">
       <formula>NOT(ISERROR(SEARCH("Première",V5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10">
-    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Première">
-      <formula>NOT(ISERROR(SEARCH("Première",I8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10">
-    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Seconde">
-      <formula>NOT(ISERROR(SEARCH("Seconde",I8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Terme">
-      <formula>NOT(ISERROR(SEARCH("Terme",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -26428,13 +26439,13 @@
     </row>
     <row r="2" spans="1:11" ht="26">
       <c r="A2" s="1"/>
-      <c r="B2" s="357" t="s">
+      <c r="B2" s="359" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -26455,7 +26466,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="360" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3">
@@ -26476,7 +26487,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A5" s="358"/>
+      <c r="A5" s="360"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -26495,7 +26506,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A6" s="358"/>
+      <c r="A6" s="360"/>
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -26514,7 +26525,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A7" s="358"/>
+      <c r="A7" s="360"/>
       <c r="B7" s="19">
         <v>0</v>
       </c>
@@ -26552,12 +26563,12 @@
     <row r="9" spans="1:11" ht="25.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="359" t="s">
+      <c r="C9" s="361" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -26640,6 +26651,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8c2c4fd-65f4-4926-9eb8-66729ce2a800">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3DF4D05BF8D67489DB7453D498BD6AF" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9070a87844bb581c29933625ce623948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8c2c4fd-65f4-4926-9eb8-66729ce2a800" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="989e9ad7d14a7fad952c8893d78b692d" ns2:_="">
     <xsd:import namespace="a8c2c4fd-65f4-4926-9eb8-66729ce2a800"/>
@@ -26811,16 +26832,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8c2c4fd-65f4-4926-9eb8-66729ce2a800">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D889019A-D69F-44DE-BAD6-515FF214DA9F}">
   <ds:schemaRefs>
@@ -26830,6 +26841,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BD8AE0-4973-48D7-9433-9280751D62B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8c2c4fd-65f4-4926-9eb8-66729ce2a800"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64589A-DBA8-4F00-8257-0D4FEF9BD700}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26845,20 +26872,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BD8AE0-4973-48D7-9433-9280751D62B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a8c2c4fd-65f4-4926-9eb8-66729ce2a800"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/20250915_INR_GPC_ONR Template.xlsx
+++ b/20250915_INR_GPC_ONR Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggallon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDF562-24E2-2C4D-96B3-774B4BD462BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110A7F95-4F06-7A4C-9991-43459C783435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27940" yWindow="9160" windowWidth="32420" windowHeight="19880" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26642,15 +26642,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8c2c4fd-65f4-4926-9eb8-66729ce2a800">
@@ -26658,6 +26649,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26833,14 +26833,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D889019A-D69F-44DE-BAD6-515FF214DA9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BD8AE0-4973-48D7-9433-9280751D62B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -26852,6 +26844,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a8c2c4fd-65f4-4926-9eb8-66729ce2a800"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D889019A-D69F-44DE-BAD6-515FF214DA9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
